--- a/biology/Botanique/Piriqueta_cistoides/Piriqueta_cistoides.xlsx
+++ b/biology/Botanique/Piriqueta_cistoides/Piriqueta_cistoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piriqueta cistoides est une espèce de plantes à fleurs de la famille des Passifloraceae (anciennement des Turneraceae). Son synonyme Piriqueta villosa Aubl. est l'espèce type du genre Piriqueta Aubl.. C'est une plante herbacée d'origine néotropicale.
-On l'appelle Celedonia au Venezuela[3].
+On l'appelle Celedonia au Venezuela.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Piriqueta cistoides comprend deux sous-espèces[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Piriqueta cistoides comprend deux sous-espèces :
 Piriqueta cistoides subsp. caroliniana (Walter) Arbo
 Piriqueta cistoides subsp. cistoides</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Piriqueta cistoides est une plante herbacée érigée, simple ou ramifiée, haute de 10–80 cm, à base souvent ligneuse. Les parties jeunes sont couvertes de poils étalés simples et étoilés. 
 Les feuilles dépourvues de stipules, portent un pétiole long de 0,5-10 mm.
@@ -555,7 +571,7 @@
 Les graines sont droites ou légèrement recourbées, de forme obovoïde, longues de 1,7 mm pour 0,7 mm de diamètre.
 Elles sont recouvertes d'alvéoles disposées en rangées longitudinales. Les bords du hile sont garnis d'une excroissance sèche membraneuse et frangée (strophiole), aussi longue que la graine ou légèrement plus courte. 
 Piriqueta cistoides subsp. caroliniana (Walter) Arbo est caractérisé par ses fleurs hétérostylées, longues de (8–)11–20 mm. L'écart entre l'androcée et le gynécée est de 2–5 mm pour les fleurs brévistyles, et de 1,5–5 mm pour les fleurs longistyles. Ce sont des plantes souvent pérennes. Les feuilles sont de forme elliptique ou linéaire, à marges généralement révolutées.
-Piriqueta cistoides subsp. cistoides est caractérisé par ses petites fleurs homostylées, longues de 4 à 11 mm. L'androcée peu dépasser le gynécée jusqu'à 1,5 mm ou être légèrement plus court (jusqu'à 1 mm de moins). Ce sont des plantes annuelles. Les feuilles sont de forme ovale, elliptique à linéaire, à marge généralement plate[3],[5].
+Piriqueta cistoides subsp. cistoides est caractérisé par ses petites fleurs homostylées, longues de 4 à 11 mm. L'androcée peu dépasser le gynécée jusqu'à 1,5 mm ou être légèrement plus court (jusqu'à 1 mm de moins). Ce sont des plantes annuelles. Les feuilles sont de forme ovale, elliptique à linéaire, à marge généralement plate,.
 </t>
         </is>
       </c>
@@ -584,11 +600,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Piriqueta cistoides est présent du Sud-est des États-Unis à l'Amérique du Sud jusqu'au nord de l'Argentine et au sud du Brésil en passant par le Mexique, l'Amérique centrale, et les Antilles.
 Piriqueta cistoides subsp. caroliniana (Walter) Arbo est présent du sud-est des États-Unis, au Brésil, aux Antilles, en Colombie, au Venezuela et en Bolivie.
-Piriqueta cistoides subsp. cistoides est présent au Mexique, en Amérique centrale, aux Antilles, et en Amérique du Sud jusqu'au sud du Brésil, en passant par la Bolivie, le Paraguay et le nord de l'Argentine[3].
+Piriqueta cistoides subsp. cistoides est présent au Mexique, en Amérique centrale, aux Antilles, et en Amérique du Sud jusqu'au sud du Brésil, en passant par la Bolivie, le Paraguay et le nord de l'Argentine.
 </t>
         </is>
       </c>
@@ -617,14 +635,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Venezuela, Piriqueta cistoides est généralement une plante pionnière qui affectionne les endroits perturbés et ouverts sur des sols sablonneux ou rocheux, mais aussi les savanes, le bord des rivières ou des lacs autour de 50–300 m d'altitude[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Venezuela, Piriqueta cistoides est généralement une plante pionnière qui affectionne les endroits perturbés et ouverts sur des sols sablonneux ou rocheux, mais aussi les savanes, le bord des rivières ou des lacs autour de 50–300 m d'altitude.
 Piriqueta cistoides a été étudié sous différents aspects :
-son pollen[6],
-sa biologie reproductive[7],
-la prédation de ses graines par Pachybrachius vinctus[8],
-sa mycorhization en condition de sécheresse[9], etc.
+son pollen,
+sa biologie reproductive,
+la prédation de ses graines par Pachybrachius vinctus,
+sa mycorhization en condition de sécheresse, etc.
 </t>
         </is>
       </c>
@@ -653,7 +673,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Piriqueta villosa Aubl. est l'espèce type du genre Piriqueta Aubl. et synonyme de Piriqueta cistoides subsp. cistoides : 
 « PIRIQUETA villoſa. (Tabula 117.)
@@ -671,7 +693,7 @@
 L'ovaire devient une capsule à trois côtes arrondies, qui s'ouvre de la pointe à la baſe en trois ou quatre valves. Elles ont dans le milieu de leur longueur, ſur leur face interne, une arrête ſaillante, à laquelle ſont attachées ſept à huit petites semences brunes &amp; ovoïdes. 
 Cette plante croît dans les lieux ſabloneux près du rivage de la mer, tant à Caïenne qu'à la grande terre. Elle eſt annuelle, &amp; on la trouvé preſque toujours avec fleurs &amp; fruits. 
 La branche repréſentée &amp; le détail des parties de la fleur, ſont de grandeur naturelle. »
-— Fusée-Aublet, 1775[10].
+— Fusée-Aublet, 1775.
 			Fleur brévistylée de Piriqueta cistoides subsp. caroliniana dans la zone naturelle de Juno Dunes (Comté de Palm Beach, Floride)
 			Fleur brévistylée de Piriqueta cistoides subsp. caroliniana butinée par un Colias
 			Fleur brévistylée de Piriqueta cistoides subsp. caroliniana
